--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_100ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_100ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2202,28 +2202,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>897.1730427474357</v>
+        <v>959.4893557743285</v>
       </c>
       <c r="AB2" t="n">
-        <v>1227.551737568238</v>
+        <v>1312.815666253334</v>
       </c>
       <c r="AC2" t="n">
-        <v>1110.395922614409</v>
+        <v>1187.522381614476</v>
       </c>
       <c r="AD2" t="n">
-        <v>897173.0427474357</v>
+        <v>959489.3557743285</v>
       </c>
       <c r="AE2" t="n">
-        <v>1227551.737568238</v>
+        <v>1312815.666253334</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.768702799075394e-06</v>
+        <v>2.990079838150688e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.45555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1110395.922614409</v>
+        <v>1187522.381614476</v>
       </c>
     </row>
     <row r="3">
@@ -2308,28 +2308,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>318.1500119453135</v>
+        <v>349.3082132130353</v>
       </c>
       <c r="AB3" t="n">
-        <v>435.3068821315097</v>
+        <v>477.9389077088321</v>
       </c>
       <c r="AC3" t="n">
-        <v>393.7618042579239</v>
+        <v>432.3250891485703</v>
       </c>
       <c r="AD3" t="n">
-        <v>318150.0119453134</v>
+        <v>349308.2132130353</v>
       </c>
       <c r="AE3" t="n">
-        <v>435306.8821315097</v>
+        <v>477938.9077088321</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.282545503298865e-06</v>
+        <v>5.549306040764486e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.172222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>393761.8042579239</v>
+        <v>432325.0891485703</v>
       </c>
     </row>
     <row r="4">
@@ -2414,28 +2414,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>238.398658862631</v>
+        <v>259.2277167803467</v>
       </c>
       <c r="AB4" t="n">
-        <v>326.1875624622471</v>
+        <v>354.6867984186008</v>
       </c>
       <c r="AC4" t="n">
-        <v>295.0566793080664</v>
+        <v>320.8359881835768</v>
       </c>
       <c r="AD4" t="n">
-        <v>238398.658862631</v>
+        <v>259227.7167803466</v>
       </c>
       <c r="AE4" t="n">
-        <v>326187.562462247</v>
+        <v>354686.7984186008</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.846388815607212e-06</v>
+        <v>6.502511135984909e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.268055555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>295056.6793080664</v>
+        <v>320835.9881835768</v>
       </c>
     </row>
     <row r="5">
@@ -2520,28 +2520,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>203.1359702654029</v>
+        <v>234.2940820245734</v>
       </c>
       <c r="AB5" t="n">
-        <v>277.9395962435173</v>
+        <v>320.5714993512694</v>
       </c>
       <c r="AC5" t="n">
-        <v>251.4134312687908</v>
+        <v>289.9766053782045</v>
       </c>
       <c r="AD5" t="n">
-        <v>203135.9702654029</v>
+        <v>234294.0820245734</v>
       </c>
       <c r="AE5" t="n">
-        <v>277939.5962435173</v>
+        <v>320571.4993512694</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.076302673355712e-06</v>
+        <v>6.891191919960947e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.970833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>251413.4312687909</v>
+        <v>289976.6053782045</v>
       </c>
     </row>
     <row r="6">
@@ -2626,28 +2626,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>204.0779060256468</v>
+        <v>235.2360177848172</v>
       </c>
       <c r="AB6" t="n">
-        <v>279.2283943059551</v>
+        <v>321.8602974137073</v>
       </c>
       <c r="AC6" t="n">
-        <v>252.5792282529895</v>
+        <v>291.1424023624032</v>
       </c>
       <c r="AD6" t="n">
-        <v>204077.9060256468</v>
+        <v>235236.0177848172</v>
       </c>
       <c r="AE6" t="n">
-        <v>279228.3943059552</v>
+        <v>321860.2974137072</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.076448557783217e-06</v>
+        <v>6.891438544823875e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.970833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>252579.2282529895</v>
+        <v>291142.4023624032</v>
       </c>
     </row>
   </sheetData>
@@ -2923,28 +2923,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>542.0906073414807</v>
+        <v>592.4581057062098</v>
       </c>
       <c r="AB2" t="n">
-        <v>741.7122843143499</v>
+        <v>810.627317634175</v>
       </c>
       <c r="AC2" t="n">
-        <v>670.9243048991167</v>
+        <v>733.2621841617546</v>
       </c>
       <c r="AD2" t="n">
-        <v>542090.6073414807</v>
+        <v>592458.1057062098</v>
       </c>
       <c r="AE2" t="n">
-        <v>741712.2843143499</v>
+        <v>810627.3176341751</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.332548410201924e-06</v>
+        <v>4.039486361306681e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.986111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>670924.3048991167</v>
+        <v>733262.1841617546</v>
       </c>
     </row>
     <row r="3">
@@ -3029,28 +3029,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>241.1632885116213</v>
+        <v>271.4349920432047</v>
       </c>
       <c r="AB3" t="n">
-        <v>329.9702507148459</v>
+        <v>371.3893309802191</v>
       </c>
       <c r="AC3" t="n">
-        <v>298.4783531028746</v>
+        <v>335.9444544796659</v>
       </c>
       <c r="AD3" t="n">
-        <v>241163.2885116214</v>
+        <v>271434.9920432047</v>
       </c>
       <c r="AE3" t="n">
-        <v>329970.2507148458</v>
+        <v>371389.3309802191</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.741494577233832e-06</v>
+        <v>6.479486663400313e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.602777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>298478.3531028746</v>
+        <v>335944.4544796659</v>
       </c>
     </row>
     <row r="4">
@@ -3135,28 +3135,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>201.5855092720133</v>
+        <v>221.7667344682843</v>
       </c>
       <c r="AB4" t="n">
-        <v>275.8181871108511</v>
+        <v>303.4310297571944</v>
       </c>
       <c r="AC4" t="n">
-        <v>249.4944864463293</v>
+        <v>274.4719981453825</v>
       </c>
       <c r="AD4" t="n">
-        <v>201585.5092720133</v>
+        <v>221766.7344682844</v>
       </c>
       <c r="AE4" t="n">
-        <v>275818.1871108511</v>
+        <v>303431.0297571945</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.143533200731369e-06</v>
+        <v>7.175733536234229e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.058333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>249494.4864463293</v>
+        <v>274471.9981453825</v>
       </c>
     </row>
     <row r="5">
@@ -3241,28 +3241,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>201.8021790647678</v>
+        <v>221.9834042610389</v>
       </c>
       <c r="AB5" t="n">
-        <v>276.1146442800944</v>
+        <v>303.7274869264377</v>
       </c>
       <c r="AC5" t="n">
-        <v>249.7626501594203</v>
+        <v>274.7401618584734</v>
       </c>
       <c r="AD5" t="n">
-        <v>201802.1790647678</v>
+        <v>221983.4042610389</v>
       </c>
       <c r="AE5" t="n">
-        <v>276114.6442800944</v>
+        <v>303727.4869264377</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.151078970691908e-06</v>
+        <v>7.188801232796426e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.050000000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>249762.6501594203</v>
+        <v>274740.1618584734</v>
       </c>
     </row>
   </sheetData>
@@ -3538,28 +3538,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>182.9178448783267</v>
+        <v>210.2639417164724</v>
       </c>
       <c r="AB2" t="n">
-        <v>250.2762651281928</v>
+        <v>287.6924012467724</v>
       </c>
       <c r="AC2" t="n">
-        <v>226.3902496493751</v>
+        <v>260.2354422506862</v>
       </c>
       <c r="AD2" t="n">
-        <v>182917.8448783267</v>
+        <v>210263.9417164724</v>
       </c>
       <c r="AE2" t="n">
-        <v>250276.2651281928</v>
+        <v>287692.4012467724</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.049673593254726e-06</v>
+        <v>7.662853886562725e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.774999999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>226390.2496493751</v>
+        <v>260235.4422506862</v>
       </c>
     </row>
     <row r="3">
@@ -3644,28 +3644,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>181.3505837194276</v>
+        <v>208.6966805575733</v>
       </c>
       <c r="AB3" t="n">
-        <v>248.1318692679056</v>
+        <v>285.5480053864852</v>
       </c>
       <c r="AC3" t="n">
-        <v>224.4505119203146</v>
+        <v>258.2957045216257</v>
       </c>
       <c r="AD3" t="n">
-        <v>181350.5837194276</v>
+        <v>208696.6805575733</v>
       </c>
       <c r="AE3" t="n">
-        <v>248131.8692679056</v>
+        <v>285548.0053864851</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.08486910976297e-06</v>
+        <v>7.729451377509649e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.725</v>
       </c>
       <c r="AH3" t="n">
-        <v>224450.5119203146</v>
+        <v>258295.7045216257</v>
       </c>
     </row>
   </sheetData>
@@ -3941,28 +3941,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>265.0360834829776</v>
+        <v>293.6113166744666</v>
       </c>
       <c r="AB2" t="n">
-        <v>362.6340619881943</v>
+        <v>401.7319566911057</v>
       </c>
       <c r="AC2" t="n">
-        <v>328.0247760721429</v>
+        <v>363.3912225788483</v>
       </c>
       <c r="AD2" t="n">
-        <v>265036.0834829776</v>
+        <v>293611.3166744666</v>
       </c>
       <c r="AE2" t="n">
-        <v>362634.0619881943</v>
+        <v>401731.9566911057</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.433578735434206e-06</v>
+        <v>6.255234769254389e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.516666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>328024.7760721429</v>
+        <v>363391.2225788482</v>
       </c>
     </row>
     <row r="3">
@@ -4047,28 +4047,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>185.6554066380029</v>
+        <v>213.9747067743277</v>
       </c>
       <c r="AB3" t="n">
-        <v>254.0219179004811</v>
+        <v>292.7696337063279</v>
       </c>
       <c r="AC3" t="n">
-        <v>229.778422578134</v>
+        <v>264.8281107702439</v>
       </c>
       <c r="AD3" t="n">
-        <v>185655.4066380029</v>
+        <v>213974.7067743277</v>
       </c>
       <c r="AE3" t="n">
-        <v>254021.9179004811</v>
+        <v>292769.6337063279</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.181900099207109e-06</v>
+        <v>7.618513777521016e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.350000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>229778.4225781341</v>
+        <v>264828.1107702439</v>
       </c>
     </row>
   </sheetData>
@@ -4344,28 +4344,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>189.5200850637757</v>
+        <v>215.8427836189568</v>
       </c>
       <c r="AB2" t="n">
-        <v>259.3097414201998</v>
+        <v>295.3256188588819</v>
       </c>
       <c r="AC2" t="n">
-        <v>234.5615836426394</v>
+        <v>267.1401562871866</v>
       </c>
       <c r="AD2" t="n">
-        <v>189520.0850637757</v>
+        <v>215842.7836189567</v>
       </c>
       <c r="AE2" t="n">
-        <v>259309.7414201998</v>
+        <v>295325.6188588819</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.90352959568763e-06</v>
+        <v>7.649660288486462e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.223611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>234561.5836426394</v>
+        <v>267140.1562871867</v>
       </c>
     </row>
   </sheetData>
@@ -4641,28 +4641,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>618.4168830563262</v>
+        <v>669.2954155064067</v>
       </c>
       <c r="AB2" t="n">
-        <v>846.1452620250355</v>
+        <v>915.7595147256711</v>
       </c>
       <c r="AC2" t="n">
-        <v>765.3903457896995</v>
+        <v>828.3607119168037</v>
       </c>
       <c r="AD2" t="n">
-        <v>618416.8830563262</v>
+        <v>669295.4155064067</v>
       </c>
       <c r="AE2" t="n">
-        <v>846145.2620250356</v>
+        <v>915759.5147256711</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.178038450044489e-06</v>
+        <v>3.747274222055083e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.537500000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>765390.3457896995</v>
+        <v>828360.7119168036</v>
       </c>
     </row>
     <row r="3">
@@ -4747,28 +4747,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>257.4458637674525</v>
+        <v>287.9729832375039</v>
       </c>
       <c r="AB3" t="n">
-        <v>352.2487885163855</v>
+        <v>394.0173401369378</v>
       </c>
       <c r="AC3" t="n">
-        <v>318.6306585247665</v>
+        <v>356.4128782010778</v>
       </c>
       <c r="AD3" t="n">
-        <v>257445.8637674525</v>
+        <v>287972.9832375039</v>
       </c>
       <c r="AE3" t="n">
-        <v>352248.7885163855</v>
+        <v>394017.3401369378</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.615457082426388e-06</v>
+        <v>6.220325966075642e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.745833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>318630.6585247666</v>
+        <v>356412.8782010778</v>
       </c>
     </row>
     <row r="4">
@@ -4853,28 +4853,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>206.8156587845965</v>
+        <v>227.1671612731795</v>
       </c>
       <c r="AB4" t="n">
-        <v>282.9743084118758</v>
+        <v>310.8201319616641</v>
       </c>
       <c r="AC4" t="n">
-        <v>255.9676375740658</v>
+        <v>281.1558948061299</v>
       </c>
       <c r="AD4" t="n">
-        <v>206815.6587845965</v>
+        <v>227167.1612731795</v>
       </c>
       <c r="AE4" t="n">
-        <v>282974.3084118757</v>
+        <v>310820.1319616641</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.099881070594629e-06</v>
+        <v>7.053768334079241e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.066666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>255967.6375740658</v>
+        <v>281155.8948061299</v>
       </c>
     </row>
     <row r="5">
@@ -4959,28 +4959,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>205.1613000579892</v>
+        <v>225.5128025465722</v>
       </c>
       <c r="AB5" t="n">
-        <v>280.7107418169768</v>
+        <v>308.5565653667651</v>
       </c>
       <c r="AC5" t="n">
-        <v>253.9201025980476</v>
+        <v>279.1083598301117</v>
       </c>
       <c r="AD5" t="n">
-        <v>205161.3000579892</v>
+        <v>225512.8025465722</v>
       </c>
       <c r="AE5" t="n">
-        <v>280710.7418169768</v>
+        <v>308556.5653667651</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.127400062204064e-06</v>
+        <v>7.101114241986823e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.033333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>253920.1025980476</v>
+        <v>279108.3598301117</v>
       </c>
     </row>
   </sheetData>
@@ -5256,28 +5256,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>192.2930842419913</v>
+        <v>226.6776453191043</v>
       </c>
       <c r="AB2" t="n">
-        <v>263.1038812319221</v>
+        <v>310.1503546373791</v>
       </c>
       <c r="AC2" t="n">
-        <v>237.9936160758408</v>
+        <v>280.5500400896361</v>
       </c>
       <c r="AD2" t="n">
-        <v>192293.0842419913</v>
+        <v>226677.6453191043</v>
       </c>
       <c r="AE2" t="n">
-        <v>263103.8812319221</v>
+        <v>310150.3546373791</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.724531457648164e-06</v>
+        <v>7.466420634570351e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.675000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>237993.6160758408</v>
+        <v>280550.0400896361</v>
       </c>
     </row>
   </sheetData>
@@ -5553,28 +5553,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>383.315820420089</v>
+        <v>422.5728273973488</v>
       </c>
       <c r="AB2" t="n">
-        <v>524.4696161992663</v>
+        <v>578.1827850424698</v>
       </c>
       <c r="AC2" t="n">
-        <v>474.4149721269371</v>
+        <v>523.0018315226513</v>
       </c>
       <c r="AD2" t="n">
-        <v>383315.8204200891</v>
+        <v>422572.8273973488</v>
       </c>
       <c r="AE2" t="n">
-        <v>524469.6161992663</v>
+        <v>578182.7850424699</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.829133739292206e-06</v>
+        <v>5.010606076443986e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.633333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>474414.9721269371</v>
+        <v>523001.8315226512</v>
       </c>
     </row>
     <row r="3">
@@ -5659,28 +5659,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>197.5312036477563</v>
+        <v>217.159796644937</v>
       </c>
       <c r="AB3" t="n">
-        <v>270.2709072924049</v>
+        <v>297.1276141835412</v>
       </c>
       <c r="AC3" t="n">
-        <v>244.4766312280977</v>
+        <v>268.7701717071774</v>
       </c>
       <c r="AD3" t="n">
-        <v>197531.2036477563</v>
+        <v>217159.796644937</v>
       </c>
       <c r="AE3" t="n">
-        <v>270270.9072924049</v>
+        <v>297127.6141835412</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.121408018339061e-06</v>
+        <v>7.299319849531426e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.240277777777777</v>
       </c>
       <c r="AH3" t="n">
-        <v>244476.6312280977</v>
+        <v>268770.1717071774</v>
       </c>
     </row>
     <row r="4">
@@ -5765,28 +5765,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>193.1055707660206</v>
+        <v>212.7341637632012</v>
       </c>
       <c r="AB4" t="n">
-        <v>264.2155611384741</v>
+        <v>291.0722680296104</v>
       </c>
       <c r="AC4" t="n">
-        <v>238.9991988123644</v>
+        <v>263.2927392914441</v>
       </c>
       <c r="AD4" t="n">
-        <v>193105.5707660206</v>
+        <v>212734.1637632012</v>
       </c>
       <c r="AE4" t="n">
-        <v>264215.5611384741</v>
+        <v>291072.2680296104</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.186713661125691e-06</v>
+        <v>7.414980995566407e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.158333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>238999.1988123644</v>
+        <v>263292.7392914441</v>
       </c>
     </row>
   </sheetData>
@@ -6062,28 +6062,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>487.7618609039489</v>
+        <v>527.8559685338231</v>
       </c>
       <c r="AB2" t="n">
-        <v>667.377296623385</v>
+        <v>722.2358235097698</v>
       </c>
       <c r="AC2" t="n">
-        <v>603.6837441035669</v>
+        <v>653.3066501783414</v>
       </c>
       <c r="AD2" t="n">
-        <v>487761.8609039489</v>
+        <v>527855.9685338232</v>
       </c>
       <c r="AE2" t="n">
-        <v>667377.2966233849</v>
+        <v>722235.8235097699</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.484962175260839e-06</v>
+        <v>4.3335570487349e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.515277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>603683.744103567</v>
+        <v>653306.6501783414</v>
       </c>
     </row>
     <row r="3">
@@ -6168,28 +6168,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>224.7219938358025</v>
+        <v>254.5579767166868</v>
       </c>
       <c r="AB3" t="n">
-        <v>307.4745460006725</v>
+        <v>348.297454048945</v>
       </c>
       <c r="AC3" t="n">
-        <v>278.1296068736949</v>
+        <v>315.0564338731646</v>
       </c>
       <c r="AD3" t="n">
-        <v>224721.9938358025</v>
+        <v>254557.9767166868</v>
       </c>
       <c r="AE3" t="n">
-        <v>307474.5460006725</v>
+        <v>348297.454048945</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.877887757285843e-06</v>
+        <v>6.762697634632955e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.456944444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>278129.6068736949</v>
+        <v>315056.4338731646</v>
       </c>
     </row>
     <row r="4">
@@ -6274,28 +6274,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>199.0254329562309</v>
+        <v>219.029905852433</v>
       </c>
       <c r="AB4" t="n">
-        <v>272.3153777530035</v>
+        <v>299.6863801046314</v>
       </c>
       <c r="AC4" t="n">
-        <v>246.3259802973697</v>
+        <v>271.0847326000101</v>
       </c>
       <c r="AD4" t="n">
-        <v>199025.4329562309</v>
+        <v>219029.905852433</v>
       </c>
       <c r="AE4" t="n">
-        <v>272315.3777530035</v>
+        <v>299686.3801046314</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.154857975826964e-06</v>
+        <v>7.245709510949554e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.093055555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>246325.9802973697</v>
+        <v>271084.7326000101</v>
       </c>
     </row>
     <row r="5">
@@ -6380,28 +6380,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>199.9532846943893</v>
+        <v>219.9577575905913</v>
       </c>
       <c r="AB5" t="n">
-        <v>273.5849054350809</v>
+        <v>300.9559077867088</v>
       </c>
       <c r="AC5" t="n">
-        <v>247.4743460392633</v>
+        <v>272.2330983419037</v>
       </c>
       <c r="AD5" t="n">
-        <v>199953.2846943893</v>
+        <v>219957.7575905914</v>
       </c>
       <c r="AE5" t="n">
-        <v>273584.9054350809</v>
+        <v>300955.9077867088</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.154553278116798e-06</v>
+        <v>7.245178144748986e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.093055555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>247474.3460392633</v>
+        <v>272233.0983419036</v>
       </c>
     </row>
   </sheetData>
@@ -6677,28 +6677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>786.2296068340364</v>
+        <v>848.1688179225609</v>
       </c>
       <c r="AB2" t="n">
-        <v>1075.754034072567</v>
+        <v>1160.501995249025</v>
       </c>
       <c r="AC2" t="n">
-        <v>973.0855788909504</v>
+        <v>1049.745313597238</v>
       </c>
       <c r="AD2" t="n">
-        <v>786229.6068340364</v>
+        <v>848168.817922561</v>
       </c>
       <c r="AE2" t="n">
-        <v>1075754.034072567</v>
+        <v>1160501.995249025</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.900923530876036e-06</v>
+        <v>3.231444016161328e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.74444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>973085.5788909504</v>
+        <v>1049745.313597237</v>
       </c>
     </row>
     <row r="3">
@@ -6783,28 +6783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>301.2060030487402</v>
+        <v>332.1330276742677</v>
       </c>
       <c r="AB3" t="n">
-        <v>412.1233416423029</v>
+        <v>454.4390611389812</v>
       </c>
       <c r="AC3" t="n">
-        <v>372.7908683347035</v>
+        <v>411.0680349531042</v>
       </c>
       <c r="AD3" t="n">
-        <v>301206.0030487402</v>
+        <v>332133.0276742677</v>
       </c>
       <c r="AE3" t="n">
-        <v>412123.3416423029</v>
+        <v>454439.0611389812</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.384370315085633e-06</v>
+        <v>5.753205231836695e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.034722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>372790.8683347035</v>
+        <v>411068.0349531042</v>
       </c>
     </row>
     <row r="4">
@@ -6889,28 +6889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>226.6397844154919</v>
+        <v>247.3147245717414</v>
       </c>
       <c r="AB4" t="n">
-        <v>310.0985516787513</v>
+        <v>338.3869169145037</v>
       </c>
       <c r="AC4" t="n">
-        <v>280.5031811326739</v>
+        <v>306.091744493305</v>
       </c>
       <c r="AD4" t="n">
-        <v>226639.7844154919</v>
+        <v>247314.7245717414</v>
       </c>
       <c r="AE4" t="n">
-        <v>310098.5516787514</v>
+        <v>338386.9169145037</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.942280416125602e-06</v>
+        <v>6.70161542734347e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.180555555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>280503.1811326739</v>
+        <v>306091.744493305</v>
       </c>
     </row>
     <row r="5">
@@ -6995,28 +6995,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>200.4194019181033</v>
+        <v>231.3463370350793</v>
       </c>
       <c r="AB5" t="n">
-        <v>274.2226675842067</v>
+        <v>316.5382646113149</v>
       </c>
       <c r="AC5" t="n">
-        <v>248.0512410639816</v>
+        <v>286.3282969011495</v>
       </c>
       <c r="AD5" t="n">
-        <v>200419.4019181033</v>
+        <v>231346.3370350793</v>
       </c>
       <c r="AE5" t="n">
-        <v>274222.6675842067</v>
+        <v>316538.2646113149</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.095948327455799e-06</v>
+        <v>6.962840692052111e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.986111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>248051.2410639816</v>
+        <v>286328.2969011495</v>
       </c>
     </row>
     <row r="6">
@@ -7101,28 +7101,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>201.0259290743415</v>
+        <v>231.9528641913176</v>
       </c>
       <c r="AB6" t="n">
-        <v>275.052544797461</v>
+        <v>317.3681418245692</v>
       </c>
       <c r="AC6" t="n">
-        <v>248.8019159607431</v>
+        <v>287.078971797911</v>
       </c>
       <c r="AD6" t="n">
-        <v>201025.9290743415</v>
+        <v>231952.8641913176</v>
       </c>
       <c r="AE6" t="n">
-        <v>275052.544797461</v>
+        <v>317368.1418245692</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.096389479354354e-06</v>
+        <v>6.963590621041703e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.986111111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>248801.9159607431</v>
+        <v>287078.971797911</v>
       </c>
     </row>
   </sheetData>
@@ -7398,28 +7398,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>298.3759683411138</v>
+        <v>336.7232129311581</v>
       </c>
       <c r="AB2" t="n">
-        <v>408.2511633030086</v>
+        <v>460.7195551121401</v>
       </c>
       <c r="AC2" t="n">
-        <v>369.2882452614751</v>
+        <v>416.7491273961935</v>
       </c>
       <c r="AD2" t="n">
-        <v>298375.9683411138</v>
+        <v>336723.2129311581</v>
       </c>
       <c r="AE2" t="n">
-        <v>408251.1633030087</v>
+        <v>460719.5551121401</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.213861247500941e-06</v>
+        <v>5.795352357184903e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.875</v>
       </c>
       <c r="AH2" t="n">
-        <v>369288.2452614752</v>
+        <v>416749.1273961935</v>
       </c>
     </row>
     <row r="3">
@@ -7504,28 +7504,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>187.9428464772276</v>
+        <v>216.5966933600969</v>
       </c>
       <c r="AB3" t="n">
-        <v>257.1516940032301</v>
+        <v>296.3571514268598</v>
       </c>
       <c r="AC3" t="n">
-        <v>232.6094972423061</v>
+        <v>268.0732408346422</v>
       </c>
       <c r="AD3" t="n">
-        <v>187942.8464772276</v>
+        <v>216596.6933600969</v>
       </c>
       <c r="AE3" t="n">
-        <v>257151.6940032301</v>
+        <v>296357.1514268598</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.184287621610223e-06</v>
+        <v>7.545260751345279e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.280555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>232609.4972423061</v>
+        <v>268073.2408346422</v>
       </c>
     </row>
   </sheetData>
@@ -7801,28 +7801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>198.6698214938108</v>
+        <v>226.4249829922391</v>
       </c>
       <c r="AB2" t="n">
-        <v>271.8288144616501</v>
+        <v>309.8046508950871</v>
       </c>
       <c r="AC2" t="n">
-        <v>245.885853923647</v>
+        <v>280.2373298273102</v>
       </c>
       <c r="AD2" t="n">
-        <v>198669.8214938108</v>
+        <v>226424.9829922392</v>
       </c>
       <c r="AE2" t="n">
-        <v>271828.8144616501</v>
+        <v>309804.6508950872</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.911706823126753e-06</v>
+        <v>7.297994583275754e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.883333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>245885.853923647</v>
+        <v>280237.3298273102</v>
       </c>
     </row>
     <row r="3">
@@ -7907,28 +7907,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>182.1819823741827</v>
+        <v>209.937143872611</v>
       </c>
       <c r="AB3" t="n">
-        <v>249.2694255860609</v>
+        <v>287.2452620194981</v>
       </c>
       <c r="AC3" t="n">
-        <v>225.4795014600358</v>
+        <v>259.8309773636989</v>
       </c>
       <c r="AD3" t="n">
-        <v>182181.9823741827</v>
+        <v>209937.143872611</v>
       </c>
       <c r="AE3" t="n">
-        <v>249269.4255860609</v>
+        <v>287245.262019498</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.137576613422103e-06</v>
+        <v>7.719395414328701e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.5625</v>
       </c>
       <c r="AH3" t="n">
-        <v>225479.5014600358</v>
+        <v>259830.9773636989</v>
       </c>
     </row>
   </sheetData>
@@ -13521,28 +13521,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.5920452157052</v>
+        <v>206.4925131551829</v>
       </c>
       <c r="AB2" t="n">
-        <v>245.7257593058705</v>
+        <v>282.5321663055333</v>
       </c>
       <c r="AC2" t="n">
-        <v>222.2740377160588</v>
+        <v>255.5676928898021</v>
       </c>
       <c r="AD2" t="n">
-        <v>179592.0452157052</v>
+        <v>206492.5131551829</v>
       </c>
       <c r="AE2" t="n">
-        <v>245725.7593058705</v>
+        <v>282532.1663055333</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.018538379877076e-06</v>
+        <v>7.727798326404651e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.925</v>
       </c>
       <c r="AH2" t="n">
-        <v>222274.0377160588</v>
+        <v>255567.6928898022</v>
       </c>
     </row>
     <row r="3">
@@ -13627,28 +13627,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>180.8537750139051</v>
+        <v>207.7542429533828</v>
       </c>
       <c r="AB3" t="n">
-        <v>247.4521136793568</v>
+        <v>284.2585206790196</v>
       </c>
       <c r="AC3" t="n">
-        <v>223.8356312510938</v>
+        <v>257.1292864248371</v>
       </c>
       <c r="AD3" t="n">
-        <v>180853.7750139051</v>
+        <v>207754.2429533828</v>
       </c>
       <c r="AE3" t="n">
-        <v>247452.1136793568</v>
+        <v>284258.5206790196</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.017509831533111e-06</v>
+        <v>7.72582038979692e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.92638888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>223835.6312510938</v>
+        <v>257129.2864248371</v>
       </c>
     </row>
   </sheetData>
@@ -13924,28 +13924,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>208.124939762442</v>
+        <v>241.5626145622598</v>
       </c>
       <c r="AB2" t="n">
-        <v>284.7657244071631</v>
+        <v>330.5166262343512</v>
       </c>
       <c r="AC2" t="n">
-        <v>257.5880833410316</v>
+        <v>298.9725833096414</v>
       </c>
       <c r="AD2" t="n">
-        <v>208124.939762442</v>
+        <v>241562.6145622598</v>
       </c>
       <c r="AE2" t="n">
-        <v>284765.7244071631</v>
+        <v>330516.6262343512</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.429960636783268e-06</v>
+        <v>7.074634481730087e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.449999999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>257588.0833410316</v>
+        <v>298972.5833096414</v>
       </c>
     </row>
   </sheetData>
@@ -14221,28 +14221,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>437.5152710263611</v>
+        <v>477.07092356109</v>
       </c>
       <c r="AB2" t="n">
-        <v>598.6276956297723</v>
+        <v>652.7494845000174</v>
       </c>
       <c r="AC2" t="n">
-        <v>541.4955085381138</v>
+        <v>590.4519898389902</v>
       </c>
       <c r="AD2" t="n">
-        <v>437515.271026361</v>
+        <v>477070.92356109</v>
       </c>
       <c r="AE2" t="n">
-        <v>598627.6956297724</v>
+        <v>652749.4845000174</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.653175838540201e-06</v>
+        <v>4.661525286429689e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.054166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>541495.5085381138</v>
+        <v>590451.9898389903</v>
       </c>
     </row>
     <row r="3">
@@ -14327,28 +14327,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>209.7356170967718</v>
+        <v>239.2957028067414</v>
       </c>
       <c r="AB3" t="n">
-        <v>286.9695241940611</v>
+        <v>327.414937561364</v>
       </c>
       <c r="AC3" t="n">
-        <v>259.5815555693212</v>
+        <v>296.1669154503558</v>
       </c>
       <c r="AD3" t="n">
-        <v>209735.6170967718</v>
+        <v>239295.7028067413</v>
       </c>
       <c r="AE3" t="n">
-        <v>286969.5241940611</v>
+        <v>327414.937561364</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.007998854160828e-06</v>
+        <v>7.04189588012066e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.331944444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>259581.5555693211</v>
+        <v>296166.9154503557</v>
       </c>
     </row>
     <row r="4">
@@ -14433,28 +14433,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>195.9232198274157</v>
+        <v>215.7437612763413</v>
       </c>
       <c r="AB4" t="n">
-        <v>268.0707928901765</v>
+        <v>295.1901321211581</v>
       </c>
       <c r="AC4" t="n">
-        <v>242.4864926565374</v>
+        <v>267.0176002135543</v>
       </c>
       <c r="AD4" t="n">
-        <v>195923.2198274157</v>
+        <v>215743.7612763413</v>
       </c>
       <c r="AE4" t="n">
-        <v>268070.7928901765</v>
+        <v>295190.1321211581</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.169562075785093e-06</v>
+        <v>7.325756087204762e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.125</v>
       </c>
       <c r="AH4" t="n">
-        <v>242486.4926565374</v>
+        <v>267017.6002135543</v>
       </c>
     </row>
   </sheetData>
@@ -14730,28 +14730,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>701.3723600619317</v>
+        <v>752.5766425779887</v>
       </c>
       <c r="AB2" t="n">
-        <v>959.6486054014589</v>
+        <v>1029.708563713442</v>
       </c>
       <c r="AC2" t="n">
-        <v>868.0610893772199</v>
+        <v>931.4346235976769</v>
       </c>
       <c r="AD2" t="n">
-        <v>701372.3600619317</v>
+        <v>752576.6425779887</v>
       </c>
       <c r="AE2" t="n">
-        <v>959648.6054014589</v>
+        <v>1029708.563713442</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.037133366205188e-06</v>
+        <v>3.483271033188544e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.10972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>868061.0893772199</v>
+        <v>931434.623597677</v>
       </c>
     </row>
     <row r="3">
@@ -14836,28 +14836,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>273.2931978953896</v>
+        <v>304.0669182126363</v>
       </c>
       <c r="AB3" t="n">
-        <v>373.9318102054348</v>
+        <v>416.0377719842146</v>
       </c>
       <c r="AC3" t="n">
-        <v>338.2442830560192</v>
+        <v>376.3317109387207</v>
       </c>
       <c r="AD3" t="n">
-        <v>273293.1978953896</v>
+        <v>304066.9182126363</v>
       </c>
       <c r="AE3" t="n">
-        <v>373931.8102054349</v>
+        <v>416037.7719842146</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.502819611560621e-06</v>
+        <v>5.989431173160068e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.879166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>338244.2830560192</v>
+        <v>376331.7109387207</v>
       </c>
     </row>
     <row r="4">
@@ -14942,28 +14942,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>215.0016119520646</v>
+        <v>235.5175150054465</v>
       </c>
       <c r="AB4" t="n">
-        <v>294.1746906743657</v>
+        <v>322.2454543297529</v>
       </c>
       <c r="AC4" t="n">
-        <v>266.0990710732625</v>
+        <v>291.4908004429527</v>
       </c>
       <c r="AD4" t="n">
-        <v>215001.6119520646</v>
+        <v>235517.5150054464</v>
       </c>
       <c r="AE4" t="n">
-        <v>294174.6906743657</v>
+        <v>322245.4543297529</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.036456920314713e-06</v>
+        <v>6.901891501309538e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.101388888888888</v>
       </c>
       <c r="AH4" t="n">
-        <v>266099.0710732625</v>
+        <v>291490.8004429527</v>
       </c>
     </row>
     <row r="5">
@@ -15048,28 +15048,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>207.8904957733153</v>
+        <v>228.4063988266971</v>
       </c>
       <c r="AB5" t="n">
-        <v>284.4449477983014</v>
+        <v>312.5157114536884</v>
       </c>
       <c r="AC5" t="n">
-        <v>257.2979212015067</v>
+        <v>282.6896505711968</v>
       </c>
       <c r="AD5" t="n">
-        <v>207890.4957733153</v>
+        <v>228406.3988266971</v>
       </c>
       <c r="AE5" t="n">
-        <v>284444.9477983013</v>
+        <v>312515.7114536884</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.11207654450604e-06</v>
+        <v>7.03119263144464e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.008333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>257297.9212015067</v>
+        <v>282689.6505711968</v>
       </c>
     </row>
   </sheetData>
@@ -15345,28 +15345,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>241.7522591300782</v>
+        <v>274.3040625056212</v>
       </c>
       <c r="AB2" t="n">
-        <v>330.776106298568</v>
+        <v>375.3149197613531</v>
       </c>
       <c r="AC2" t="n">
-        <v>299.207298960712</v>
+        <v>339.495390577127</v>
       </c>
       <c r="AD2" t="n">
-        <v>241752.2591300782</v>
+        <v>274304.0625056212</v>
       </c>
       <c r="AE2" t="n">
-        <v>330776.106298568</v>
+        <v>375314.9197613531</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.907954259620827e-06</v>
+        <v>6.233085354361657e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.1</v>
       </c>
       <c r="AH2" t="n">
-        <v>299207.298960712</v>
+        <v>339495.3905771269</v>
       </c>
     </row>
   </sheetData>
@@ -15642,28 +15642,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>234.6077723040341</v>
+        <v>262.6572528832547</v>
       </c>
       <c r="AB2" t="n">
-        <v>321.0007042306658</v>
+        <v>359.3792410150542</v>
       </c>
       <c r="AC2" t="n">
-        <v>290.3648475463044</v>
+        <v>325.0805906445093</v>
       </c>
       <c r="AD2" t="n">
-        <v>234607.7723040342</v>
+        <v>262657.2528832547</v>
       </c>
       <c r="AE2" t="n">
-        <v>321000.7042306658</v>
+        <v>359379.2410150542</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.670651660484418e-06</v>
+        <v>6.762928044310111e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.179166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>290364.8475463043</v>
+        <v>325080.5906445093</v>
       </c>
     </row>
     <row r="3">
@@ -15748,28 +15748,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>183.9239733978373</v>
+        <v>211.8881131224829</v>
       </c>
       <c r="AB3" t="n">
-        <v>251.6528945558441</v>
+        <v>289.9146642178601</v>
       </c>
       <c r="AC3" t="n">
-        <v>227.6354954965634</v>
+        <v>262.2456155627797</v>
       </c>
       <c r="AD3" t="n">
-        <v>183923.9733978373</v>
+        <v>211888.1131224829</v>
       </c>
       <c r="AE3" t="n">
-        <v>251652.8945558441</v>
+        <v>289914.6642178601</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.164143488849215e-06</v>
+        <v>7.672153444697385e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.447222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>227635.4954965634</v>
+        <v>262245.6155627797</v>
       </c>
     </row>
   </sheetData>
@@ -16045,28 +16045,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>344.6710401061353</v>
+        <v>373.8124223373935</v>
       </c>
       <c r="AB2" t="n">
-        <v>471.5941228863323</v>
+        <v>511.4666476821889</v>
       </c>
       <c r="AC2" t="n">
-        <v>426.5858416845685</v>
+        <v>462.6529886753485</v>
       </c>
       <c r="AD2" t="n">
-        <v>344671.0401061353</v>
+        <v>373812.4223373935</v>
       </c>
       <c r="AE2" t="n">
-        <v>471594.1228863323</v>
+        <v>511466.6476821888</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.010499335265684e-06</v>
+        <v>5.378037361386986e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.252777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>426585.8416845686</v>
+        <v>462652.9886753485</v>
       </c>
     </row>
     <row r="3">
@@ -16151,28 +16151,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>191.0633637794914</v>
+        <v>210.4909817698469</v>
       </c>
       <c r="AB3" t="n">
-        <v>261.4213234436927</v>
+        <v>288.0030474640995</v>
       </c>
       <c r="AC3" t="n">
-        <v>236.4716392414348</v>
+        <v>260.5164408290264</v>
       </c>
       <c r="AD3" t="n">
-        <v>191063.3637794914</v>
+        <v>210490.9817698469</v>
       </c>
       <c r="AE3" t="n">
-        <v>261421.3234436927</v>
+        <v>288003.0474640995</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.180707532068612e-06</v>
+        <v>7.468528905193301e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.223611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>236471.6392414348</v>
+        <v>260516.4408290264</v>
       </c>
     </row>
     <row r="4">
@@ -16257,28 +16257,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>190.8086822130867</v>
+        <v>210.2363002034423</v>
       </c>
       <c r="AB4" t="n">
-        <v>261.0728568887803</v>
+        <v>287.6545809091871</v>
       </c>
       <c r="AC4" t="n">
-        <v>236.1564298454473</v>
+        <v>260.2012314330389</v>
       </c>
       <c r="AD4" t="n">
-        <v>190808.6822130868</v>
+        <v>210236.3002034423</v>
       </c>
       <c r="AE4" t="n">
-        <v>261072.8568887803</v>
+        <v>287654.5809091871</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.192184785644672e-06</v>
+        <v>7.489032181116701e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.208333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>236156.4298454473</v>
+        <v>260201.2314330388</v>
       </c>
     </row>
   </sheetData>
